--- a/data/FEmition/FEBrake.xlsx
+++ b/data/FEmition/FEBrake.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="9315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,142 +25,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+  <si>
+    <t>PM2.5 BRAKE</t>
+  </si>
+  <si>
+    <t>PM10 BRAKE</t>
+  </si>
+  <si>
+    <t>PM2.5 TIRE</t>
+  </si>
+  <si>
+    <t>PM10 TIRE</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>AUT_GNV</t>
+  </si>
+  <si>
+    <t>CC_GNV</t>
+  </si>
+  <si>
+    <t>TX_GNV</t>
+  </si>
+  <si>
+    <t>ESP_GNV</t>
+  </si>
+  <si>
+    <t>INT_GNV</t>
+  </si>
+  <si>
+    <t>C2P_GNV</t>
+  </si>
+  <si>
+    <t>C2G_GNV</t>
+  </si>
+  <si>
+    <t>C3-C4_GNV</t>
+  </si>
+  <si>
+    <t>C5_GNV</t>
+  </si>
+  <si>
+    <t>&gt;C5_GNV</t>
+  </si>
+  <si>
+    <t>AUT_GAS</t>
+  </si>
+  <si>
+    <t>CC_GAS</t>
+  </si>
+  <si>
+    <t>TX_GAS</t>
+  </si>
+  <si>
+    <t>ESP_GAS</t>
+  </si>
+  <si>
+    <t>INT_GAS</t>
+  </si>
+  <si>
+    <t>C2P_GAS</t>
+  </si>
+  <si>
+    <t>C2G_GAS</t>
+  </si>
+  <si>
+    <t>C3-C4_GAS</t>
+  </si>
+  <si>
+    <t>C5_GAS</t>
+  </si>
+  <si>
+    <t>&gt;C5_GAS</t>
+  </si>
+  <si>
+    <t>M_GAS</t>
+  </si>
+  <si>
+    <t>CC_DSEL</t>
+  </si>
+  <si>
+    <t>MB_DSEL</t>
+  </si>
+  <si>
+    <t>BT_DSEL</t>
+  </si>
+  <si>
+    <t>B_DSEL</t>
+  </si>
+  <si>
+    <t>AL_DSEL</t>
+  </si>
+  <si>
+    <t>AT_DSEL</t>
+  </si>
+  <si>
+    <t>BA_DSEL</t>
+  </si>
+  <si>
+    <t>ESP_DSEL</t>
+  </si>
+  <si>
+    <t>INT_DSEL</t>
+  </si>
+  <si>
+    <t>C2P_DSEL</t>
+  </si>
+  <si>
+    <t>C2G_DSEL</t>
+  </si>
+  <si>
+    <t>C3-C4_DSEL</t>
+  </si>
+  <si>
+    <t>C5_DSEL</t>
+  </si>
+  <si>
+    <t>&gt;C5_DSEL</t>
+  </si>
+  <si>
+    <t>contaminante</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>ALD2</t>
+  </si>
+  <si>
+    <t>mol/h</t>
+  </si>
+  <si>
+    <t>ALDX</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>ETHA</t>
+  </si>
+  <si>
+    <t>ETOH</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>IOLE</t>
+  </si>
+  <si>
+    <t>ISOP</t>
+  </si>
+  <si>
+    <t>MEOH</t>
+  </si>
+  <si>
+    <t>OLE</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>TERP</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>UNR</t>
+  </si>
+  <si>
+    <t>XYL</t>
+  </si>
   <si>
     <t>Pollutant</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>C2P</t>
-  </si>
-  <si>
-    <t>C2G</t>
-  </si>
-  <si>
-    <t>C3-C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>&gt;C5</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>PM2.5 BRAKE</t>
-  </si>
-  <si>
-    <t>PM10 BRAKE</t>
-  </si>
-  <si>
-    <t>PM2.5 TIRE</t>
-  </si>
-  <si>
-    <t>PM10 TIRE</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>contaminante</t>
-  </si>
-  <si>
-    <t>unidad</t>
-  </si>
-  <si>
-    <t>ALD2</t>
-  </si>
-  <si>
-    <t>mol/h</t>
-  </si>
-  <si>
-    <t>ALDX</t>
-  </si>
-  <si>
-    <t>BEN</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>ETHA</t>
-  </si>
-  <si>
-    <t>ETOH</t>
-  </si>
-  <si>
-    <t>FORM</t>
-  </si>
-  <si>
-    <t>IOLE</t>
-  </si>
-  <si>
-    <t>ISOP</t>
-  </si>
-  <si>
-    <t>MEOH</t>
-  </si>
-  <si>
-    <t>OLE</t>
-  </si>
-  <si>
-    <t>PAR</t>
-  </si>
-  <si>
-    <t>TERP</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>UNR</t>
-  </si>
-  <si>
-    <t>XYL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,14 +241,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -206,74 +258,54 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 5" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -548,177 +580,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:BS6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3" t="s">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="3" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="3" t="s">
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="3" t="s">
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="3" t="s">
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="3" t="s">
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="3" t="s">
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="3" t="s">
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="4"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS1" s="2"/>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>2.0218749999999998E-3</v>
@@ -727,37 +954,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.2374999999999983E-3</v>
+        <v>2.0218749999999998E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>9.5937499999999998E-3</v>
+        <v>2.0218749999999998E-3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9.5937499999999998E-3</v>
+        <v>2.0218749999999998E-3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.5937499999999998E-3</v>
+        <v>2.0218749999999998E-3</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.5937499999999998E-3</v>
+        <v>2.0218749999999998E-3</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.5937499999999998E-3</v>
+        <v>2.0218749999999998E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -769,51 +996,171 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>9.5937499999999998E-3</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>9.5937499999999998E-3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>9.5937499999999998E-3</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>9.5937499999999998E-3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>9.5937499999999998E-3</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>8.2374999999999983E-3</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>8.2374999999999983E-3</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>8.2374999999999983E-3</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>8.2374999999999983E-3</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>8.2374999999999983E-3</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>8.2374999999999983E-3</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>2.15E-3</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
         <v>2.15E-3</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>2.15E-3</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>2.15E-3</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>2.15E-3</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>2.15E-3</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
         <v>8.3687500000000012E-3</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
         <v>8.3687500000000012E-3</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
         <v>8.3687500000000012E-3</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>8.3687500000000012E-3</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>8.3687500000000012E-3</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>8.3687500000000012E-3</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>8.3687500000000012E-3</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>8.3687500000000012E-3</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>8.3687500000000012E-3</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
         <v>1.1312499999999999E-3</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="BS3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1.6175000000000002E-2</v>
@@ -822,37 +1169,37 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.5887500000000002E-2</v>
+        <v>1.6175000000000002E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7.6731249999999987E-2</v>
+        <v>1.6175000000000002E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.6731249999999987E-2</v>
+        <v>1.6175000000000002E-2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.6731249999999987E-2</v>
+        <v>1.6175000000000002E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.6731249999999987E-2</v>
+        <v>1.6175000000000002E-2</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.6731249999999987E-2</v>
+        <v>1.6175000000000002E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -864,51 +1211,171 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>7.6731249999999987E-2</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7.6731249999999987E-2</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>7.6731249999999987E-2</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>7.6731249999999987E-2</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>7.6731249999999987E-2</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>6.5887500000000002E-2</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>6.5887500000000002E-2</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>6.5887500000000002E-2</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>6.5887500000000002E-2</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>6.5887500000000002E-2</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>6.5887500000000002E-2</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>1.7206249999999999E-2</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
         <v>1.7206249999999999E-2</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>1.7206249999999999E-2</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>1.7206249999999999E-2</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>1.7206249999999999E-2</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.7206249999999999E-2</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
         <v>6.6931249999999998E-2</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
         <v>6.6931249999999998E-2</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
         <v>6.6931249999999998E-2</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>6.6931249999999998E-2</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>6.6931249999999998E-2</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>6.6931249999999998E-2</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>6.6931249999999998E-2</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>6.6931249999999998E-2</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>6.6931249999999998E-2</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
         <v>9.0624999999999994E-3</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="BS4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>9.3749999999999997E-4</v>
@@ -917,37 +1384,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.6875E-3</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.8124999999999999E-3</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.8124999999999999E-3</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.8124999999999999E-3</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.8124999999999999E-3</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.8124999999999999E-3</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -959,31 +1426,31 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.6875E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>9.3749999999999997E-4</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>9.3749999999999997E-4</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1.6875E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.6875E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -995,15 +1462,135 @@
         <v>0</v>
       </c>
       <c r="AD5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>1.6875E-3</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
         <v>4.3749999999999995E-4</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="BS5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>6.1875000000000003E-3</v>
@@ -1012,37 +1599,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.1124999999999999E-2</v>
+        <v>6.1875000000000003E-3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.2312499999999999E-2</v>
+        <v>6.1875000000000003E-3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.2312499999999999E-2</v>
+        <v>6.1875000000000003E-3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.2312499999999999E-2</v>
+        <v>6.1875000000000003E-3</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.2312499999999999E-2</v>
+        <v>6.1875000000000003E-3</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.2312499999999999E-2</v>
+        <v>6.1875000000000003E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1054,59 +1641,199 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>1.2312499999999999E-2</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1.2312499999999999E-2</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1.2312499999999999E-2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1.2312499999999999E-2</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1.2312499999999999E-2</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>1.1124999999999999E-2</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1.1124999999999999E-2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1.1124999999999999E-2</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>1.1124999999999999E-2</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>1.1124999999999999E-2</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1.1124999999999999E-2</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>6.3749999999999987E-3</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>6.3749999999999987E-3</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>6.3749999999999987E-3</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>6.3749999999999987E-3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>6.3749999999999987E-3</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>6.3749999999999987E-3</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
         <v>1.1062499999999998E-2</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
         <v>1.1062499999999998E-2</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
         <v>1.1062499999999998E-2</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>1.1062499999999998E-2</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>1.1062499999999998E-2</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>1.1062499999999998E-2</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>1.1062499999999998E-2</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>1.1062499999999998E-2</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>1.1062499999999998E-2</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
         <v>3.0625000000000001E-3</v>
       </c>
-      <c r="AE6">
+      <c r="BS6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="35">
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="BN1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -1122,162 +1849,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
